--- a/data/trans_orig/P74B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DD084A-64FA-4E77-8587-9372A90C2BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB9E433-1965-423D-AFFB-5C36319D6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD868500-14C8-482D-87F9-11678376A579}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52B0125F-6917-4164-A7E3-BA5E4228BA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="476">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>8,51%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,31 +142,31 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>8,71%</t>
+    <t>8,54%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>91,29%</t>
+    <t>91,46%</t>
   </si>
   <si>
     <t>97,41%</t>
@@ -175,19 +175,19 @@
     <t>21,6%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,25 +196,25 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>20,67%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>33,36%</t>
@@ -223,19 +223,19 @@
     <t>96,57%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>73,66%</t>
@@ -244,7 +244,7 @@
     <t>66,64%</t>
   </si>
   <si>
-    <t>79,33%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -253,1225 +253,1219 @@
     <t>13,63%</t>
   </si>
   <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>14,39%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>62,84%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,61%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>37,16%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0DE736-F970-4AF5-99EF-5AC5BDC17E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1E2BB-928E-4D9C-B0AE-BEF250B85862}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2985,7 +2979,7 @@
         <v>240</v>
       </c>
       <c r="D23" s="7">
-        <v>242022</v>
+        <v>242023</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -3036,7 +3030,7 @@
         <v>262</v>
       </c>
       <c r="D24" s="7">
-        <v>264149</v>
+        <v>264150</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3414,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7AB8CB-77F4-48B3-886E-093BB3E433C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0394AE-EFBD-49D3-93FF-D71CB7BF2DA4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3845,13 +3839,13 @@
         <v>47678</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -3860,13 +3854,13 @@
         <v>60725</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3875,13 @@
         <v>126578</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3896,13 +3890,13 @@
         <v>20749</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3911,13 +3905,13 @@
         <v>147327</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3979,13 @@
         <v>52352</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -4000,13 +3994,13 @@
         <v>120882</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -4015,13 +4009,13 @@
         <v>173234</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4030,13 @@
         <v>170534</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4051,13 +4045,13 @@
         <v>40591</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>197</v>
@@ -4066,13 +4060,13 @@
         <v>211125</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4134,13 @@
         <v>13246</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4155,13 +4149,13 @@
         <v>43019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4170,13 +4164,13 @@
         <v>56265</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4185,13 @@
         <v>68871</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4206,13 +4200,13 @@
         <v>21171</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4221,13 +4215,13 @@
         <v>90042</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,10 +4292,10 @@
         <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4349,10 +4343,10 @@
         <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4605,13 +4599,13 @@
         <v>29677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -4620,13 +4614,13 @@
         <v>143257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -4635,7 +4629,7 @@
         <v>172934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>295</v>
@@ -4656,13 +4650,13 @@
         <v>295945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -4671,13 +4665,13 @@
         <v>67773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>328</v>
@@ -4686,7 +4680,7 @@
         <v>363718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>303</v>
@@ -4927,7 +4921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B37302D-B972-439F-A4D4-A6D6F4BA394F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12896F-A509-4465-B284-1668CACF08ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5227,7 +5221,7 @@
         <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -5236,13 +5230,13 @@
         <v>117943</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5251,13 @@
         <v>239756</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -5272,13 +5266,13 @@
         <v>57353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -5287,13 +5281,13 @@
         <v>297109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5355,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5376,13 +5370,13 @@
         <v>48846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -5391,13 +5385,13 @@
         <v>66392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5406,13 @@
         <v>121185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5427,13 +5421,13 @@
         <v>27985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -5442,13 +5436,13 @@
         <v>149171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5510,13 @@
         <v>26824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -5531,13 +5525,13 @@
         <v>87185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5546,13 +5540,13 @@
         <v>114009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5561,13 @@
         <v>129887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5582,13 +5576,13 @@
         <v>36871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -5597,13 +5591,13 @@
         <v>166758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5665,13 @@
         <v>21787</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5686,13 +5680,13 @@
         <v>43467</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5701,13 +5695,13 @@
         <v>65255</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5716,13 @@
         <v>70503</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5737,13 +5731,13 @@
         <v>27735</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5752,13 +5746,13 @@
         <v>98238</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5820,13 @@
         <v>4042</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -5841,13 +5835,13 @@
         <v>50204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -5856,13 +5850,13 @@
         <v>54246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5871,13 @@
         <v>90675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5892,13 +5886,13 @@
         <v>20257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -5907,13 +5901,13 @@
         <v>110932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5975,13 @@
         <v>22213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -5996,13 +5990,13 @@
         <v>94762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -6011,13 +6005,13 @@
         <v>116975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6026,13 @@
         <v>206955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -6047,13 +6041,13 @@
         <v>45327</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>230</v>
@@ -6062,13 +6056,13 @@
         <v>252283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6130,13 @@
         <v>43545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6151,13 +6145,13 @@
         <v>133998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -6166,13 +6160,13 @@
         <v>177543</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6181,13 @@
         <v>246354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6202,13 +6196,13 @@
         <v>52760</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -6217,13 +6211,13 @@
         <v>299114</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6285,13 @@
         <v>169085</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H28" s="7">
         <v>521</v>
@@ -6306,13 +6300,13 @@
         <v>592873</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>466</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>690</v>
@@ -6321,13 +6315,13 @@
         <v>761958</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6336,13 @@
         <v>1188754</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6357,13 +6351,13 @@
         <v>303524</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>1433</v>
@@ -6372,13 +6366,13 @@
         <v>1492279</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P74B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB9E433-1965-423D-AFFB-5C36319D6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F479CF6-A6AE-4ACB-9E10-B4CE83494F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52B0125F-6917-4164-A7E3-BA5E4228BA74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D1AB014-D207-4DF0-9EBD-B10360BE0D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>8,51%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,55 +196,55 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>73,66%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -253,55 +253,55 @@
     <t>13,63%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>86,37%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -310,649 +310,643 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
   </si>
   <si>
     <t>70,81%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>32,98%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>61,54%</t>
   </si>
   <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>16,18%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>46,2%</t>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>67,78%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>12,57%</t>
@@ -961,16 +955,16 @@
     <t>10,66%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>14,66%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>34,81%</t>
@@ -979,13 +973,13 @@
     <t>32,77%</t>
   </si>
   <si>
-    <t>36,93%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>85,34%</t>
   </si>
   <si>
     <t>89,34%</t>
@@ -994,478 +988,502 @@
     <t>31,9%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>63,07%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>23,95%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>35,89%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>76,05%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>63,58%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>51,52%</t>
   </si>
   <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>36,42%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>48,48%</t>
   </si>
   <si>
     <t>69,2%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>61,05%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>39,91%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>71,25%</t>
   </si>
   <si>
-    <t>59,48%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>40,81%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>40,52%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>59,19%</t>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>71,75%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,84%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>37,16%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1E2BB-928E-4D9C-B0AE-BEF250B85862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B2CB5B-EBCB-4E4E-94F3-AE6D33AE19AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2985,10 +3003,10 @@
         <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -2997,13 +3015,13 @@
         <v>22243</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>261</v>
@@ -3012,13 +3030,13 @@
         <v>264266</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3092,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3086,13 +3104,13 @@
         <v>26721</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -3101,13 +3119,13 @@
         <v>111235</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -3116,13 +3134,13 @@
         <v>137956</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3155,13 @@
         <v>285956</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -3152,13 +3170,13 @@
         <v>22504</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>303</v>
@@ -3167,13 +3185,13 @@
         <v>308460</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3259,13 @@
         <v>107100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>505</v>
@@ -3256,13 +3274,13 @@
         <v>507414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>613</v>
@@ -3271,13 +3289,13 @@
         <v>614514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3310,13 @@
         <v>1308412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -3307,13 +3325,13 @@
         <v>104662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>1399</v>
@@ -3322,13 +3340,13 @@
         <v>1413074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,7 +3402,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0394AE-EFBD-49D3-93FF-D71CB7BF2DA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08629941-980B-4CB5-B384-FBB75F214810}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3530,39 +3548,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,39 +3593,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,39 +3638,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3687,13 @@
         <v>18662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3684,13 +3702,13 @@
         <v>99659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -3699,13 +3717,13 @@
         <v>118321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3738,13 @@
         <v>205192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3735,13 +3753,13 @@
         <v>45896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>234</v>
@@ -3750,13 +3768,13 @@
         <v>251088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3842,13 @@
         <v>13047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3839,13 +3857,13 @@
         <v>47678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -3854,13 +3872,13 @@
         <v>60725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3893,13 @@
         <v>126578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3890,13 +3908,13 @@
         <v>20749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3905,13 +3923,13 @@
         <v>147327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3997,13 @@
         <v>52352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -3994,13 +4012,13 @@
         <v>120882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -4009,13 +4027,13 @@
         <v>173234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4048,13 @@
         <v>170534</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4045,13 +4063,13 @@
         <v>40591</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>197</v>
@@ -4060,13 +4078,13 @@
         <v>211125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4152,13 @@
         <v>13246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4149,13 +4167,13 @@
         <v>43019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4164,13 +4182,13 @@
         <v>56265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4203,13 @@
         <v>68871</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4200,13 +4218,13 @@
         <v>21171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4215,13 +4233,13 @@
         <v>90042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4307,13 @@
         <v>11114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4304,13 +4322,13 @@
         <v>51073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -4319,13 +4337,13 @@
         <v>62187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4358,13 @@
         <v>106733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4355,13 +4373,13 @@
         <v>36939</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -4370,13 +4388,13 @@
         <v>143672</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4462,13 @@
         <v>34767</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -4459,13 +4477,13 @@
         <v>120073</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -4474,13 +4492,13 @@
         <v>154840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4513,13 @@
         <v>228630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -4510,13 +4528,13 @@
         <v>59933</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4525,13 +4543,13 @@
         <v>288563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,7 +4605,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4599,13 +4617,13 @@
         <v>29677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -4614,13 +4632,13 @@
         <v>143257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -4629,13 +4647,13 @@
         <v>172934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4668,13 @@
         <v>295945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -4665,13 +4683,13 @@
         <v>67773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>328</v>
@@ -4680,13 +4698,13 @@
         <v>363718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4772,13 @@
         <v>172865</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>574</v>
@@ -4769,13 +4787,13 @@
         <v>625640</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>726</v>
@@ -4784,13 +4802,13 @@
         <v>798505</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4823,13 @@
         <v>1202484</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>270</v>
@@ -4820,13 +4838,13 @@
         <v>293051</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>1396</v>
@@ -4835,13 +4853,13 @@
         <v>1495535</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4915,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12896F-A509-4465-B284-1668CACF08ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD81DB-0688-4D46-A68F-87EE39DA564A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4938,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5045,13 +5063,13 @@
         <v>17626</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -5060,13 +5078,13 @@
         <v>31969</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5075,13 +5093,13 @@
         <v>49595</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5114,13 @@
         <v>83439</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -5111,13 +5129,13 @@
         <v>35235</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -5126,13 +5144,13 @@
         <v>118675</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5218,13 @@
         <v>15500</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5215,13 +5233,13 @@
         <v>102443</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -5230,13 +5248,13 @@
         <v>117943</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,10 +5287,10 @@
         <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -5281,13 +5299,13 @@
         <v>297109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5373,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5370,13 +5388,13 @@
         <v>48846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -5385,13 +5403,13 @@
         <v>66392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5424,13 @@
         <v>121185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5421,10 +5439,10 @@
         <v>27985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>370</v>
@@ -5841,7 +5859,7 @@
         <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -5850,13 +5868,13 @@
         <v>54246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5889,13 @@
         <v>90675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5886,13 +5904,13 @@
         <v>20257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -5901,13 +5919,13 @@
         <v>110932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5993,13 @@
         <v>22213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -5990,13 +6008,13 @@
         <v>94762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -6005,13 +6023,13 @@
         <v>116975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6044,13 @@
         <v>206955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -6041,13 +6059,13 @@
         <v>45327</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>230</v>
@@ -6056,13 +6074,13 @@
         <v>252283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,7 +6136,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6130,13 +6148,13 @@
         <v>43545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6145,13 +6163,13 @@
         <v>133998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -6160,13 +6178,13 @@
         <v>177543</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6199,13 @@
         <v>246354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6196,13 +6214,13 @@
         <v>52760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -6211,13 +6229,13 @@
         <v>299114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6303,13 @@
         <v>169085</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>521</v>
@@ -6300,13 +6318,13 @@
         <v>592873</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>690</v>
@@ -6315,13 +6333,13 @@
         <v>761958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,16 +6351,16 @@
         <v>1141</v>
       </c>
       <c r="D29" s="7">
-        <v>1188754</v>
+        <v>1188755</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6351,13 +6369,13 @@
         <v>303524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>1433</v>
@@ -6366,13 +6384,13 @@
         <v>1492279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6402,7 @@
         <v>1310</v>
       </c>
       <c r="D30" s="7">
-        <v>1357839</v>
+        <v>1357840</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6428,7 +6446,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F479CF6-A6AE-4ACB-9E10-B4CE83494F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8796AF77-EA82-4D61-BDA8-9D663C75411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D1AB014-D207-4DF0-9EBD-B10360BE0D9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{150668FA-7AE0-4E35-96CF-9A632BB689C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>8,51%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,1351 +139,1339 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>69,49%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>89,05%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>14,39%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>85,61%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B2CB5B-EBCB-4E4E-94F3-AE6D33AE19AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6478077-22D3-48A4-A2D3-869B3A0F7A8E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2997,16 +2985,16 @@
         <v>240</v>
       </c>
       <c r="D23" s="7">
-        <v>242023</v>
+        <v>242022</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3015,13 +3003,13 @@
         <v>22243</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>261</v>
@@ -3030,13 +3018,13 @@
         <v>264266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,7 +3036,7 @@
         <v>262</v>
       </c>
       <c r="D24" s="7">
-        <v>264150</v>
+        <v>264149</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3092,7 +3080,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3104,13 +3092,13 @@
         <v>26721</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -3119,13 +3107,13 @@
         <v>111235</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -3134,13 +3122,13 @@
         <v>137956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3143,13 @@
         <v>285956</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -3170,13 +3158,13 @@
         <v>22504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>303</v>
@@ -3185,13 +3173,13 @@
         <v>308460</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3247,13 @@
         <v>107100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>505</v>
@@ -3274,13 +3262,13 @@
         <v>507414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>613</v>
@@ -3289,13 +3277,13 @@
         <v>614514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3298,13 @@
         <v>1308412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -3325,13 +3313,13 @@
         <v>104662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1399</v>
@@ -3340,13 +3328,13 @@
         <v>1413074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3390,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08629941-980B-4CB5-B384-FBB75F214810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242F85E0-8E4B-48DE-8144-9699BF6711A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3443,7 +3431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3548,39 +3536,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,39 +3581,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,39 +3626,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3675,13 @@
         <v>18662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3702,13 +3690,13 @@
         <v>99659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -3717,13 +3705,13 @@
         <v>118321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3726,13 @@
         <v>205192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3753,13 +3741,13 @@
         <v>45896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>234</v>
@@ -3768,13 +3756,13 @@
         <v>251088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3830,13 @@
         <v>13047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3857,13 +3845,13 @@
         <v>47678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -3872,13 +3860,13 @@
         <v>60725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3881,13 @@
         <v>126578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3908,13 +3896,13 @@
         <v>20749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3923,13 +3911,13 @@
         <v>147327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3985,13 @@
         <v>52352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -4012,13 +4000,13 @@
         <v>120882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -4027,13 +4015,13 @@
         <v>173234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4036,13 @@
         <v>170534</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4063,13 +4051,13 @@
         <v>40591</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>197</v>
@@ -4078,13 +4066,13 @@
         <v>211125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4140,13 @@
         <v>13246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4167,13 +4155,13 @@
         <v>43019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4182,13 +4170,13 @@
         <v>56265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4191,13 @@
         <v>68871</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4218,13 +4206,13 @@
         <v>21171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4233,13 +4221,13 @@
         <v>90042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4295,13 @@
         <v>11114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4322,13 +4310,13 @@
         <v>51073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -4337,13 +4325,13 @@
         <v>62187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4346,13 @@
         <v>106733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4373,13 +4361,13 @@
         <v>36939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -4388,13 +4376,13 @@
         <v>143672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4450,13 @@
         <v>34767</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -4477,13 +4465,13 @@
         <v>120073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -4492,13 +4480,13 @@
         <v>154840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4501,13 @@
         <v>228630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -4528,13 +4516,13 @@
         <v>59933</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4543,13 +4531,13 @@
         <v>288563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4593,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4617,13 +4605,13 @@
         <v>29677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -4632,13 +4620,13 @@
         <v>143257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -4647,13 +4635,13 @@
         <v>172934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4656,13 @@
         <v>295945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -4683,13 +4671,13 @@
         <v>67773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>328</v>
@@ -4698,13 +4686,13 @@
         <v>363718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4760,13 @@
         <v>172865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>574</v>
@@ -4787,13 +4775,13 @@
         <v>625640</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>726</v>
@@ -4802,13 +4790,13 @@
         <v>798505</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4811,13 @@
         <v>1202484</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>270</v>
@@ -4838,13 +4826,13 @@
         <v>293051</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>1396</v>
@@ -4853,13 +4841,13 @@
         <v>1495535</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4903,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4939,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD81DB-0688-4D46-A68F-87EE39DA564A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06831549-9545-44D4-926B-AA107853B069}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5063,13 +5051,13 @@
         <v>17626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -5078,13 +5066,13 @@
         <v>31969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5093,13 +5081,13 @@
         <v>49595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5102,13 @@
         <v>83439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -5129,13 +5117,13 @@
         <v>35235</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -5144,13 +5132,13 @@
         <v>118675</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5206,13 @@
         <v>15500</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5233,13 +5221,13 @@
         <v>102443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -5248,13 +5236,13 @@
         <v>117943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5257,13 @@
         <v>239756</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -5284,13 +5272,13 @@
         <v>57353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -5299,13 +5287,13 @@
         <v>297109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5361,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5388,13 +5376,13 @@
         <v>48846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -5403,13 +5391,13 @@
         <v>66392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5412,13 @@
         <v>121185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5439,13 +5427,13 @@
         <v>27985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -5454,13 +5442,13 @@
         <v>149171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5516,13 @@
         <v>26824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -5543,13 +5531,13 @@
         <v>87185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5558,13 +5546,13 @@
         <v>114009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5567,13 @@
         <v>129887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5594,13 +5582,13 @@
         <v>36871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -5609,13 +5597,13 @@
         <v>166758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5671,13 @@
         <v>21787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5698,13 +5686,13 @@
         <v>43467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5713,13 +5701,13 @@
         <v>65255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5722,13 @@
         <v>70503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5749,13 +5737,13 @@
         <v>27735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5764,13 +5752,13 @@
         <v>98238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5826,13 @@
         <v>4042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -5853,13 +5841,13 @@
         <v>50204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -5868,13 +5856,13 @@
         <v>54246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5877,13 @@
         <v>90675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5904,13 +5892,13 @@
         <v>20257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -5919,13 +5907,13 @@
         <v>110932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5981,13 @@
         <v>22213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -6008,13 +5996,13 @@
         <v>94762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -6023,13 +6011,13 @@
         <v>116975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6032,13 @@
         <v>206955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -6059,13 +6047,13 @@
         <v>45327</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>230</v>
@@ -6074,10 +6062,10 @@
         <v>252283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>445</v>
@@ -6136,7 +6124,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6148,13 +6136,13 @@
         <v>43545</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6163,13 +6151,13 @@
         <v>133998</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -6178,13 +6166,13 @@
         <v>177543</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6187,13 @@
         <v>246354</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6214,13 +6202,13 @@
         <v>52760</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -6229,13 +6217,13 @@
         <v>299114</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6291,13 @@
         <v>169085</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H28" s="7">
         <v>521</v>
@@ -6318,13 +6306,13 @@
         <v>592873</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>690</v>
@@ -6333,13 +6321,13 @@
         <v>761958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,16 +6339,16 @@
         <v>1141</v>
       </c>
       <c r="D29" s="7">
-        <v>1188755</v>
+        <v>1188754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6369,13 +6357,13 @@
         <v>303524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>1433</v>
@@ -6384,13 +6372,13 @@
         <v>1492279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,7 +6390,7 @@
         <v>1310</v>
       </c>
       <c r="D30" s="7">
-        <v>1357840</v>
+        <v>1357839</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6446,7 +6434,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8796AF77-EA82-4D61-BDA8-9D663C75411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6EFFEC-6464-46B7-A055-485D8CEBFED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{150668FA-7AE0-4E35-96CF-9A632BB689C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{84732F0B-3987-4A19-B90B-D564396280D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="497">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -592,7 +592,58 @@
     <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>8,34%</t>
@@ -703,106 +754,112 @@
     <t>76,87%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>29,95%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>70,05%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
   </si>
   <si>
     <t>9,43%</t>
@@ -1883,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6478077-22D3-48A4-A2D3-869B3A0F7A8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5453A8B0-453B-4DC9-BA9F-77D3283DF1D9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3414,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242F85E0-8E4B-48DE-8144-9699BF6711A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0C782C-0149-44C8-95FB-0F43E85B04D8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3532,43 +3589,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25306</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46341</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="N4" s="7">
+        <v>71646</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,43 +3640,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="7">
+        <v>65119</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20319</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="N5" s="7">
+        <v>85438</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,43 +3691,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>90425</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="I6" s="7">
+        <v>66660</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="N6" s="7">
+        <v>157084</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3750,13 @@
         <v>18662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3690,13 +3765,13 @@
         <v>99659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -3705,13 +3780,13 @@
         <v>118321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3801,13 @@
         <v>205192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3741,13 +3816,13 @@
         <v>45896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>234</v>
@@ -3756,13 +3831,13 @@
         <v>251088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3905,13 @@
         <v>13047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3845,13 +3920,13 @@
         <v>47678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -3860,13 +3935,13 @@
         <v>60725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3956,13 @@
         <v>126578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3896,13 +3971,13 @@
         <v>20749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3911,13 +3986,13 @@
         <v>147327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,49 +4054,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>52352</v>
+        <v>27046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>120882</v>
+        <v>74541</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>173234</v>
+        <v>101588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,49 +4105,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="D14" s="7">
-        <v>170534</v>
+        <v>105416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>40591</v>
+        <v>20272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="N14" s="7">
-        <v>211125</v>
+        <v>125687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4156,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="D15" s="7">
-        <v>222886</v>
+        <v>132462</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4096,10 +4171,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>161473</v>
+        <v>94813</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4111,10 +4186,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="N15" s="7">
-        <v>384359</v>
+        <v>227275</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4140,13 +4215,13 @@
         <v>13246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4155,13 +4230,13 @@
         <v>43019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4170,13 +4245,13 @@
         <v>56265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4266,13 @@
         <v>68871</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -4206,13 +4281,13 @@
         <v>21171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4221,13 +4296,13 @@
         <v>90042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4370,13 @@
         <v>11114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4310,13 +4385,13 @@
         <v>51073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -4325,13 +4400,13 @@
         <v>62187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4421,13 @@
         <v>106733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4361,13 +4436,13 @@
         <v>36939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -4376,13 +4451,13 @@
         <v>143672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4525,13 @@
         <v>34767</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -4465,13 +4540,13 @@
         <v>120073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -4480,13 +4555,13 @@
         <v>154840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4576,13 @@
         <v>228630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -4516,13 +4591,13 @@
         <v>59933</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4531,13 +4606,13 @@
         <v>288563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,10 +4683,10 @@
         <v>71</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -4620,13 +4695,13 @@
         <v>143257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -4635,13 +4710,13 @@
         <v>172934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,10 +4734,10 @@
         <v>81</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -4671,13 +4746,13 @@
         <v>67773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>328</v>
@@ -4686,13 +4761,13 @@
         <v>363718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4835,13 @@
         <v>172865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>574</v>
@@ -4775,13 +4850,13 @@
         <v>625640</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>726</v>
@@ -4790,13 +4865,13 @@
         <v>798505</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4886,13 @@
         <v>1202484</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>270</v>
@@ -4826,13 +4901,13 @@
         <v>293051</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>1396</v>
@@ -4841,13 +4916,13 @@
         <v>1495535</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +5002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06831549-9545-44D4-926B-AA107853B069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32483D38-00D3-4591-A8A8-AE1B7E86B21D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4944,7 +5019,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5051,13 +5126,13 @@
         <v>17626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -5066,13 +5141,13 @@
         <v>31969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5081,13 +5156,13 @@
         <v>49595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5177,13 @@
         <v>83439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -5117,13 +5192,13 @@
         <v>35235</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -5132,13 +5207,13 @@
         <v>118675</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5281,13 @@
         <v>15500</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5221,13 +5296,13 @@
         <v>102443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -5236,13 +5311,13 @@
         <v>117943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5332,13 @@
         <v>239756</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -5272,13 +5347,13 @@
         <v>57353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -5287,13 +5362,13 @@
         <v>297109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5436,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5376,13 +5451,13 @@
         <v>48846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -5391,13 +5466,13 @@
         <v>66392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5487,13 @@
         <v>121185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5427,13 +5502,13 @@
         <v>27985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -5442,13 +5517,13 @@
         <v>149171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5591,13 @@
         <v>26824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -5531,13 +5606,13 @@
         <v>87185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5546,13 +5621,13 @@
         <v>114009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5642,13 @@
         <v>129887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5582,13 +5657,13 @@
         <v>36871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -5597,13 +5672,13 @@
         <v>166758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5746,13 @@
         <v>21787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5686,13 +5761,13 @@
         <v>43467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5701,13 +5776,13 @@
         <v>65255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5797,13 @@
         <v>70503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5737,13 +5812,13 @@
         <v>27735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5752,13 +5827,13 @@
         <v>98238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5901,13 @@
         <v>4042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -5841,13 +5916,13 @@
         <v>50204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -5856,13 +5931,13 @@
         <v>54246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5952,13 @@
         <v>90675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5892,13 +5967,13 @@
         <v>20257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -5907,13 +5982,13 @@
         <v>110932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6056,13 @@
         <v>22213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -5996,13 +6071,13 @@
         <v>94762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -6011,13 +6086,13 @@
         <v>116975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6107,13 @@
         <v>206955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -6047,13 +6122,13 @@
         <v>45327</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>230</v>
@@ -6062,13 +6137,13 @@
         <v>252283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6211,13 @@
         <v>43545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6151,13 +6226,13 @@
         <v>133998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -6166,13 +6241,13 @@
         <v>177543</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6262,13 @@
         <v>246354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6202,13 +6277,13 @@
         <v>52760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -6217,13 +6292,13 @@
         <v>299114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6366,13 @@
         <v>169085</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="H28" s="7">
         <v>521</v>
@@ -6306,13 +6381,13 @@
         <v>592873</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="M28" s="7">
         <v>690</v>
@@ -6321,13 +6396,13 @@
         <v>761958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,10 +6417,10 @@
         <v>1188754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>151</v>
@@ -6357,13 +6432,13 @@
         <v>303524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>1433</v>
@@ -6372,13 +6447,13 @@
         <v>1492279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
